--- a/01-СуммЕсли--СуммЕслиМн--СрзначЕсли-СрзначЕслиМн/2-СрзначЕслиМн--СрзначЕсли--СуммЕслиМн.xlsx
+++ b/01-СуммЕсли--СуммЕслиМн--СрзначЕсли-СрзначЕслиМн/2-СрзначЕслиМн--СрзначЕсли--СуммЕслиМн.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Excel - Course\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Excel - Course\01-СуммЕсли--СуммЕслиМн--СрзначЕсли-СрзначЕслиМн\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
